--- a/Resources/story.xlsx
+++ b/Resources/story.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE03671-4690-4ADE-9BF6-202338A732BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5168C1E2-A91A-48F6-BADF-C197A14DF4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16410" yWindow="9000" windowWidth="19620" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>1957年，北京师范大学老焱若教授从人体肘关节能曲能伸受到启发，想到若能根据这个原叮功耻嘉侪黄抽萎处联理，制造一种像人的肘关节一样伸曲灵活的折叠伞，人们携带起来就方便多了，于是，他对现行伞进行改进，设计出了图纸，并亲手制定出加工工艺及模具设计，最后与北京一家机械加工厂——中孚工厂达成协仪，由该厂承制并销售。折叠伞因其携带方便而深受广大群众欢迎，没过多久，便在全国各地流行开来。</t>
   </si>
@@ -52,6 +52,85 @@
   <si>
     <t>改造伞</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要到那里去</t>
+  </si>
+  <si>
+    <t>众所周知这个城市有一个地方是绝对不能去的，身经百战的战士同样也葬身于此地，但是话不过3秒主角就按捺不住自己的好奇心，想那片黑色区域冲去，可能有许多宝藏，但是同样风险也是过分的庞大，做出怎样的选择还是得看你自己。</t>
+  </si>
+  <si>
+    <t>埋藏在手串里的暗黑童话</t>
+  </si>
+  <si>
+    <t>童话故事里有一串珠子，是给那些不听话的孩子戴在手上的，目的是为了让他们可以好好的呆在一片区域里不要到处乱跑，而且珠子的做工也是非常的精细，但是每次重新购买的时候店家总会告诉你要到寺庙里去祈福才能产生奇效，但据说很多戴了珠子的孩子都会做噩梦梦到一个被锁在牢笼里的女孩，只不过没有人相信罢了。</t>
+  </si>
+  <si>
+    <t>哇，深海鱼！</t>
+  </si>
+  <si>
+    <t>风吹雨打都在工作的浮标，今天又得知渔人收获到了不少财物，据我了解，捕鱼者有不亚于300人，这么多人到底是为了啥？就算是捕小鱼也分不完整呢，也不能每人得到一块，300人同时捕鱼，动荡可不少，要知道在一个月牙湾的区域里，鱼是非常罕见的，而且300人出场捕鱼，肯定是那家伙可不是好惹的啊！！</t>
+  </si>
+  <si>
+    <t>汇合</t>
+  </si>
+  <si>
+    <t>今天的风向标有点异常的摆动，连同指南针也有不一样的变化，而且他们都是在发了疯一样乱指，地理博士道科特瞬时就明白了他的研究是正确的，马上收拾了自己的行李，通知了自己的家人在汇合处集合，但是首先迎面袭来的就是6级地震，其次又是海啸，但也阻挡不住道科特前往汇合处的动力。</t>
+  </si>
+  <si>
+    <t>被困沙漠的可怜人</t>
+  </si>
+  <si>
+    <t>风吹着沙尘在打滚，浩瀚的沙漠没有一点杂色，两只残影走在沙丘的最上端，快给我水，一个徒步许久的人说着，快看前面有绿洲，两人眼色一对，似乎已经忘记了自己的渴感，冲到了最前面，但是海市蜃楼的效应可不是盖的，只不过他们眼中的绿洲已经变成了他们眼前的巨坑，像是被一颗巨大的陨石砸下来的，或许还有飞船残骸。</t>
+  </si>
+  <si>
+    <t>星球毁灭者</t>
+  </si>
+  <si>
+    <t>一颗，两颗，三颗，数着的行星就像是在数钱一样，一个小女孩给自己毁灭过的星球数进行了数数，我还是搞不清楚到底3+3为什么等于6，我一共去过3248个星球，被我毁灭的物种超过了1万个，但是为什么3+3等于6？一个除了头部和上半身以外全是机械部件的男人在小女孩旁边安慰着她，那我下次要不就去一个最多物种的星球吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行“专家”</t>
+  </si>
+  <si>
+    <t>我去过了很多地理地貌你们都没有见过的地方，什么沙漠，盆地，那些都是小儿科！一个穿着像是旅专的男人说着，从搭在他嘴上的那撇小胡子看来，这个人就不怎么靠谱，但是却被这么多无知的年轻人围着，他们是图个啥？一个刚出道不久的女生和一个男人在远处谈着，看公告牌上面有这么多的悬赏，每次这些悬赏名单都会在一个月之内被清理，你说会是谁呢？旅行专家很快反应过来，问道这些都是悬赏名单？没错！那看来我这次的旅行终于没有遗憾了！</t>
+  </si>
+  <si>
+    <t>小伙子，我看你骨骼惊奇！</t>
+  </si>
+  <si>
+    <t>一个老乞丐出现在我面前，这种诱惑使我按耐不住……当然不是那个乞丐！你在想什么，是武功秘籍！他手里的武功秘籍！“买任意一本武功秘籍，还附赠pdf电子版噢！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球火山频繁爆发，而人类却把岩浆拿来当能源，各种科技发明层出不穷，“火视机”“火脑”等火子科技产品成了人类追捧的潮流。“如果手上没有一把用岩浆充火的手机，我一定会受到同学的嘲笑！”——FirppleXMax开售日现场，一个学生模样的年轻人兴奋地对记者说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一桶能烧出一百块铁锭！</t>
+  </si>
+  <si>
+    <t>爱丽丝？想想都发抖</t>
+  </si>
+  <si>
+    <t>我叫林琛，是一只普通的丧尸。我原以为我的世界会很简单，直到那一场黑雨出现。当雨落在其他尸身上时，他们变成了人类这种恐怖的东西，我当时就在楼上，隔着窗户看得瑟瑟发抖。然而，这场世界末日并没有就此结束，人类竟然还会进化，最典型的就是一种叫爱丽丝的物种，他们手上锋利的双爪足以让每只丧尸崩溃！现在是早晨，窗外又出现了人类活动的声音，我还能活多久啊……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国末日</t>
+  </si>
+  <si>
+    <t>底特律变人</t>
+  </si>
+  <si>
+    <t>巫师3</t>
+  </si>
+  <si>
+    <t>去月球</t>
+  </si>
+  <si>
+    <t>绝境重启</t>
   </si>
 </sst>
 </file>
@@ -459,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,6 +580,9 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -509,6 +591,9 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -517,6 +602,9 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -525,6 +613,9 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -533,44 +624,122 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/story.xlsx
+++ b/Resources/story.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5168C1E2-A91A-48F6-BADF-C197A14DF4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF5ECAC-45AF-4F9F-BE28-D987BB32DA10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="9000" windowWidth="19620" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="4785" windowWidth="19620" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
